--- a/data/0x6d3fb4aa7ddca8cbc88f7ba94b36ba83ff6ba234.xlsx
+++ b/data/0x6d3fb4aa7ddca8cbc88f7ba94b36ba83ff6ba234.xlsx
@@ -445,33 +445,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-05-30 T 15:36:44 UTC</t>
+          <t>2022-05-30 T 18:36:33 UTC</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30573.657545355</v>
+        <v>30619.07644016125</v>
       </c>
       <c r="C2" t="n">
-        <v>0.996892</v>
+        <v>1.00005</v>
       </c>
       <c r="D2" t="n">
-        <v>1.231982</v>
+        <v>1.226498</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-05-30 T 15:36:44 UTC</t>
+          <t>2022-05-30 T 18:36:33 UTC</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30573.657545355</v>
+        <v>30619.07644016125</v>
       </c>
       <c r="C3" t="n">
-        <v>0.996892</v>
+        <v>1.00005</v>
       </c>
       <c r="D3" t="n">
-        <v>1.231982</v>
+        <v>1.226498</v>
       </c>
     </row>
   </sheetData>

--- a/data/0x6d3fb4aa7ddca8cbc88f7ba94b36ba83ff6ba234.xlsx
+++ b/data/0x6d3fb4aa7ddca8cbc88f7ba94b36ba83ff6ba234.xlsx
@@ -445,33 +445,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-05-30 T 18:36:33 UTC</t>
+          <t>2022-05-30 T 21:36:43 UTC</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30619.07644016125</v>
+        <v>30803.0368329025</v>
       </c>
       <c r="C2" t="n">
-        <v>1.00005</v>
+        <v>1.013199</v>
       </c>
       <c r="D2" t="n">
-        <v>1.226498</v>
+        <v>1.204574</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-05-30 T 18:36:33 UTC</t>
+          <t>2022-05-30 T 21:36:43 UTC</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30619.07644016125</v>
+        <v>30803.0368329025</v>
       </c>
       <c r="C3" t="n">
-        <v>1.00005</v>
+        <v>1.013199</v>
       </c>
       <c r="D3" t="n">
-        <v>1.226498</v>
+        <v>1.204574</v>
       </c>
     </row>
   </sheetData>
